--- a/legislator/property/output/normal/江惠贞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠贞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
   <si>
     <t>土地坐落</t>
   </si>
@@ -237,6 +237,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -280,6 +289,9 @@
   </si>
   <si>
     <t>〉工惠貞</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1467,13 +1479,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1492,13 +1504,22 @@
       <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1515,13 +1536,20 @@
       <c r="G2" s="2">
         <v>2900</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1538,13 +1566,20 @@
       <c r="G3" s="2">
         <v>11020</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1561,16 +1596,23 @@
       <c r="G4" s="2">
         <v>27840</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2">
         <v>39192</v>
@@ -1584,13 +1626,20 @@
       <c r="G5" s="2">
         <v>391920</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1607,13 +1656,20 @@
       <c r="G6" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -1630,13 +1686,20 @@
       <c r="G7" s="2">
         <v>5930</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1653,13 +1716,20 @@
       <c r="G8" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1676,13 +1746,20 @@
       <c r="G9" s="2">
         <v>109000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -1699,13 +1776,20 @@
       <c r="G10" s="2">
         <v>49590</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -1722,13 +1806,20 @@
       <c r="G11" s="2">
         <v>3620</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -1745,13 +1836,20 @@
       <c r="G12" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -1768,13 +1866,20 @@
       <c r="G13" s="2">
         <v>57700</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1791,13 +1896,20 @@
       <c r="G14" s="2">
         <v>11290</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -1814,6 +1926,13 @@
       <c r="G15" s="2">
         <v>4720</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1830,22 +1949,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>48</v>
@@ -1856,13 +1975,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>14339.3</v>
@@ -1882,13 +2001,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>974.188</v>
@@ -1897,7 +2016,7 @@
         <v>12.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2">
         <v>361463.32</v>
@@ -1918,22 +2037,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1941,22 +2060,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>708324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1964,22 +2083,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
